--- a/xls/square_high_un_16_tri3_24.xlsx
+++ b/xls/square_high_un_16_tri3_24.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-2.0451613577469328</v>
+        <v>-0.000148725428740187</v>
       </c>
       <c r="J24">
-        <v>-1.6517383336107598</v>
+        <v>-0.0001668449883760811</v>
       </c>
       <c r="K24">
-        <v>1.032369924970176</v>
+        <v>2.5867409213078933</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-1.0269332347339835</v>
+        <v>-2.1745120782681768e-5</v>
       </c>
       <c r="J25">
-        <v>-0.8559853029914223</v>
+        <v>-3.65688908232962e-5</v>
       </c>
       <c r="K25">
-        <v>1.9718095636695507</v>
+        <v>2.3143789155696455</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-0.0195515372974838</v>
+        <v>-2.3360433465223283e-5</v>
       </c>
       <c r="J26">
-        <v>-0.01744004260059474</v>
+        <v>-2.608166204958273e-5</v>
       </c>
       <c r="K26">
-        <v>3.1299337907513953</v>
+        <v>2.1837830340788806</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-0.00023162414699909244</v>
+        <v>-1.9778120802955617e-5</v>
       </c>
       <c r="J27">
-        <v>-0.00030294493712293067</v>
+        <v>-2.0350562040445045e-5</v>
       </c>
       <c r="K27">
-        <v>2.7501807093718824</v>
+        <v>2.11660265048893</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-6.019940434245567e-5</v>
+        <v>-1.852548407494632e-5</v>
       </c>
       <c r="J28">
-        <v>-7.235439138919913e-5</v>
+        <v>-1.7878206338404114e-5</v>
       </c>
       <c r="K28">
-        <v>2.4263423586826</v>
+        <v>2.066657606464893</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-4.2778216700228246e-5</v>
+        <v>-1.8329645871798627e-5</v>
       </c>
       <c r="J29">
-        <v>-4.1153120988211315e-5</v>
+        <v>-1.7124135004714646e-5</v>
       </c>
       <c r="K29">
-        <v>2.252737758400249</v>
+        <v>2.047680080357086</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-3.236690102333341e-5</v>
+        <v>-9.674576758433746e-6</v>
       </c>
       <c r="J30">
-        <v>-3.1577476688898606e-5</v>
+        <v>-9.588649692762275e-6</v>
       </c>
       <c r="K30">
-        <v>2.202813238485829</v>
+        <v>1.9383995919693027</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-2.0312237294832097e-5</v>
+        <v>-8.686638217730744e-6</v>
       </c>
       <c r="J31">
-        <v>-2.0854159505060483e-5</v>
+        <v>-8.314621559422828e-6</v>
       </c>
       <c r="K31">
-        <v>2.1273440875189085</v>
+        <v>1.900223541246009</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-1.3128797460130024e-5</v>
+        <v>-7.618485449936823e-6</v>
       </c>
       <c r="J32">
-        <v>-1.3781332018585196e-5</v>
+        <v>-7.334909152226329e-6</v>
       </c>
       <c r="K32">
-        <v>2.041869496023892</v>
+        <v>1.8735479622160884</v>
       </c>
     </row>
   </sheetData>
